--- a/test/excel/Too-map-N.xlsx
+++ b/test/excel/Too-map-N.xlsx
@@ -32,7 +32,7 @@
     <t>namespace</t>
   </si>
   <si>
-    <t>scaffold-n</t>
+    <t>scaffold_n</t>
   </si>
   <si>
     <t>Scaffold N</t>
@@ -444,7 +444,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -455,6 +458,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -468,17 +472,13 @@
       <name val="&quot;JetBrains Mono&quot;"/>
     </font>
     <font>
-      <color rgb="FF080808"/>
-      <name val="&quot;JetBrains Mono&quot;"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Docs-Roboto"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FF080808"/>
+      <name val="&quot;JetBrains Mono&quot;"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF871094"/>
       <name val="&quot;JetBrains Mono&quot;"/>
@@ -518,7 +518,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -527,28 +533,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -807,12 +807,13 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -830,16 +831,16 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -850,148 +851,148 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>0.2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1041,170 +1042,187 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1212,113 +1230,93 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1343,166 +1341,166 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="2" t="b">
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1510,58 +1508,58 @@
       <c r="A11" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1569,27 +1567,27 @@
       <c r="A15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1597,13 +1595,13 @@
       <c r="A17" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1611,13 +1609,13 @@
       <c r="A18" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1640,35 +1638,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>140</v>
       </c>
     </row>
